--- a/AAII_Financials/Quarterly/ELVA_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ELVA_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -718,22 +718,22 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="E8" s="3">
-        <v>14200</v>
+        <v>14400</v>
       </c>
       <c r="F8" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="G8" s="3">
-        <v>13500</v>
+        <v>13800</v>
       </c>
       <c r="H8" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="I8" s="3">
-        <v>5800</v>
+        <v>5900</v>
       </c>
       <c r="J8" s="3">
         <v>1800</v>
@@ -747,22 +747,22 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="E9" s="3">
-        <v>10500</v>
+        <v>10700</v>
       </c>
       <c r="F9" s="3">
-        <v>7900</v>
+        <v>8000</v>
       </c>
       <c r="G9" s="3">
-        <v>10200</v>
+        <v>10400</v>
       </c>
       <c r="H9" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="I9" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="J9" s="3">
         <v>1200</v>
@@ -785,7 +785,7 @@
         <v>2700</v>
       </c>
       <c r="G10" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="H10" s="3">
         <v>1500</v>
@@ -827,7 +827,7 @@
         <v>1500</v>
       </c>
       <c r="G12" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H12" s="3">
         <v>1300</v>
@@ -944,25 +944,25 @@
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="E17" s="3">
-        <v>14000</v>
+        <v>14200</v>
       </c>
       <c r="F17" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="G17" s="3">
-        <v>15100</v>
+        <v>15300</v>
       </c>
       <c r="H17" s="3">
-        <v>8100</v>
+        <v>8300</v>
       </c>
       <c r="I17" s="3">
-        <v>8600</v>
+        <v>8700</v>
       </c>
       <c r="J17" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="K17" s="3">
         <v>8700</v>
@@ -985,10 +985,10 @@
         <v>-1600</v>
       </c>
       <c r="H18" s="3">
-        <v>-2300</v>
+        <v>-2400</v>
       </c>
       <c r="I18" s="3">
-        <v>-2700</v>
+        <v>-2800</v>
       </c>
       <c r="J18" s="3">
         <v>-2900</v>
@@ -1024,10 +1024,10 @@
         <v>-400</v>
       </c>
       <c r="G20" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H20" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
@@ -1056,10 +1056,10 @@
         <v>-800</v>
       </c>
       <c r="H21" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="I21" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="J21" s="3">
         <v>-2800</v>
@@ -1108,7 +1108,7 @@
         <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G23" s="3">
         <v>-900</v>
@@ -1117,10 +1117,10 @@
         <v>-2000</v>
       </c>
       <c r="I23" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-2900</v>
       </c>
       <c r="K23" s="3">
         <v>-2700</v>
@@ -1195,7 +1195,7 @@
         <v>200</v>
       </c>
       <c r="F26" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G26" s="3">
         <v>-900</v>
@@ -1204,10 +1204,10 @@
         <v>-2000</v>
       </c>
       <c r="I26" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-2900</v>
       </c>
       <c r="K26" s="3">
         <v>-2700</v>
@@ -1224,7 +1224,7 @@
         <v>200</v>
       </c>
       <c r="F27" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G27" s="3">
         <v>-900</v>
@@ -1233,10 +1233,10 @@
         <v>-2000</v>
       </c>
       <c r="I27" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-2900</v>
       </c>
       <c r="K27" s="3">
         <v>-2700</v>
@@ -1372,10 +1372,10 @@
         <v>400</v>
       </c>
       <c r="G32" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H32" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
@@ -1398,7 +1398,7 @@
         <v>200</v>
       </c>
       <c r="F33" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G33" s="3">
         <v>-900</v>
@@ -1407,10 +1407,10 @@
         <v>-2000</v>
       </c>
       <c r="I33" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-2900</v>
       </c>
       <c r="K33" s="3">
         <v>-2700</v>
@@ -1456,7 +1456,7 @@
         <v>200</v>
       </c>
       <c r="F35" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G35" s="3">
         <v>-900</v>
@@ -1465,10 +1465,10 @@
         <v>-2000</v>
       </c>
       <c r="I35" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-2900</v>
       </c>
       <c r="K35" s="3">
         <v>-2700</v>
@@ -1542,13 +1542,13 @@
         <v>1000</v>
       </c>
       <c r="E41" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
       </c>
       <c r="G41" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H41" s="3">
         <v>1300</v>
@@ -1597,22 +1597,22 @@
         <v>35</v>
       </c>
       <c r="D43" s="3">
-        <v>13700</v>
+        <v>14000</v>
       </c>
       <c r="E43" s="3">
-        <v>11000</v>
+        <v>11300</v>
       </c>
       <c r="F43" s="3">
-        <v>10900</v>
+        <v>11100</v>
       </c>
       <c r="G43" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="H43" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="I43" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="J43" s="3">
         <v>1900</v>
@@ -1626,25 +1626,25 @@
         <v>36</v>
       </c>
       <c r="D44" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="E44" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="F44" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G44" s="3">
-        <v>6000</v>
+        <v>6200</v>
       </c>
       <c r="H44" s="3">
-        <v>6900</v>
+        <v>7000</v>
       </c>
       <c r="I44" s="3">
-        <v>7000</v>
+        <v>7200</v>
       </c>
       <c r="J44" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="K44" s="3">
         <v>6300</v>
@@ -1655,22 +1655,22 @@
         <v>37</v>
       </c>
       <c r="D45" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="E45" s="3">
-        <v>6400</v>
+        <v>6500</v>
       </c>
       <c r="F45" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G45" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="H45" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="I45" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="J45" s="3">
         <v>2900</v>
@@ -1684,25 +1684,25 @@
         <v>38</v>
       </c>
       <c r="D46" s="3">
-        <v>31100</v>
+        <v>31700</v>
       </c>
       <c r="E46" s="3">
-        <v>25000</v>
+        <v>25500</v>
       </c>
       <c r="F46" s="3">
-        <v>24600</v>
+        <v>25100</v>
       </c>
       <c r="G46" s="3">
-        <v>21200</v>
+        <v>21600</v>
       </c>
       <c r="H46" s="3">
-        <v>18900</v>
+        <v>19300</v>
       </c>
       <c r="I46" s="3">
-        <v>18400</v>
+        <v>18700</v>
       </c>
       <c r="J46" s="3">
-        <v>12000</v>
+        <v>12300</v>
       </c>
       <c r="K46" s="3">
         <v>16200</v>
@@ -1742,16 +1742,16 @@
         <v>40</v>
       </c>
       <c r="D48" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="E48" s="3">
-        <v>14000</v>
+        <v>14300</v>
       </c>
       <c r="F48" s="3">
         <v>3200</v>
       </c>
       <c r="G48" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="H48" s="3">
         <v>3500</v>
@@ -1760,7 +1760,7 @@
         <v>3700</v>
       </c>
       <c r="J48" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="K48" s="3">
         <v>3900</v>
@@ -1916,25 +1916,25 @@
         <v>46</v>
       </c>
       <c r="D54" s="3">
-        <v>45300</v>
+        <v>46200</v>
       </c>
       <c r="E54" s="3">
-        <v>39200</v>
+        <v>39900</v>
       </c>
       <c r="F54" s="3">
-        <v>27900</v>
+        <v>28400</v>
       </c>
       <c r="G54" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="H54" s="3">
-        <v>22500</v>
+        <v>22900</v>
       </c>
       <c r="I54" s="3">
-        <v>22200</v>
+        <v>22600</v>
       </c>
       <c r="J54" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="K54" s="3">
         <v>20200</v>
@@ -1971,22 +1971,22 @@
         <v>49</v>
       </c>
       <c r="D57" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="E57" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F57" s="3">
-        <v>5000</v>
+        <v>5100</v>
       </c>
       <c r="G57" s="3">
-        <v>4200</v>
+        <v>4300</v>
       </c>
       <c r="H57" s="3">
         <v>2300</v>
       </c>
       <c r="I57" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="J57" s="3">
         <v>1700</v>
@@ -2000,25 +2000,25 @@
         <v>50</v>
       </c>
       <c r="D58" s="3">
-        <v>23100</v>
+        <v>23500</v>
       </c>
       <c r="E58" s="3">
-        <v>22900</v>
+        <v>23400</v>
       </c>
       <c r="F58" s="3">
-        <v>13400</v>
+        <v>13600</v>
       </c>
       <c r="G58" s="3">
-        <v>22600</v>
+        <v>23000</v>
       </c>
       <c r="H58" s="3">
-        <v>22000</v>
+        <v>22400</v>
       </c>
       <c r="I58" s="3">
-        <v>17800</v>
+        <v>18100</v>
       </c>
       <c r="J58" s="3">
-        <v>11600</v>
+        <v>11800</v>
       </c>
       <c r="K58" s="3">
         <v>11900</v>
@@ -2029,25 +2029,25 @@
         <v>51</v>
       </c>
       <c r="D59" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E59" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F59" s="3">
         <v>1900</v>
       </c>
       <c r="G59" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="H59" s="3">
         <v>2500</v>
       </c>
       <c r="I59" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J59" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K59" s="3">
         <v>1900</v>
@@ -2058,25 +2058,25 @@
         <v>52</v>
       </c>
       <c r="D60" s="3">
-        <v>33800</v>
+        <v>34500</v>
       </c>
       <c r="E60" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="F60" s="3">
-        <v>20300</v>
+        <v>20600</v>
       </c>
       <c r="G60" s="3">
-        <v>28900</v>
+        <v>29400</v>
       </c>
       <c r="H60" s="3">
-        <v>26800</v>
+        <v>27300</v>
       </c>
       <c r="I60" s="3">
-        <v>25100</v>
+        <v>25600</v>
       </c>
       <c r="J60" s="3">
-        <v>16200</v>
+        <v>16500</v>
       </c>
       <c r="K60" s="3">
         <v>18200</v>
@@ -2087,16 +2087,16 @@
         <v>53</v>
       </c>
       <c r="D61" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E61" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F61" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="G61" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H61" s="3">
         <v>3300</v>
@@ -2105,7 +2105,7 @@
         <v>3500</v>
       </c>
       <c r="J61" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="K61" s="3">
         <v>3500</v>
@@ -2128,13 +2128,13 @@
         <v>500</v>
       </c>
       <c r="H62" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I62" s="3">
         <v>600</v>
       </c>
       <c r="J62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K62" s="3">
         <v>800</v>
@@ -2232,25 +2232,25 @@
         <v>57</v>
       </c>
       <c r="D66" s="3">
-        <v>37300</v>
+        <v>37900</v>
       </c>
       <c r="E66" s="3">
-        <v>32000</v>
+        <v>32600</v>
       </c>
       <c r="F66" s="3">
-        <v>23800</v>
+        <v>24300</v>
       </c>
       <c r="G66" s="3">
-        <v>32400</v>
+        <v>33000</v>
       </c>
       <c r="H66" s="3">
-        <v>30700</v>
+        <v>31300</v>
       </c>
       <c r="I66" s="3">
-        <v>29200</v>
+        <v>29700</v>
       </c>
       <c r="J66" s="3">
-        <v>20500</v>
+        <v>20900</v>
       </c>
       <c r="K66" s="3">
         <v>22500</v>
@@ -2390,25 +2390,25 @@
         <v>63</v>
       </c>
       <c r="D72" s="3">
-        <v>-173100</v>
+        <v>-176300</v>
       </c>
       <c r="E72" s="3">
-        <v>-173200</v>
+        <v>-176400</v>
       </c>
       <c r="F72" s="3">
-        <v>-176300</v>
+        <v>-179500</v>
       </c>
       <c r="G72" s="3">
-        <v>-174200</v>
+        <v>-177400</v>
       </c>
       <c r="H72" s="3">
-        <v>-173300</v>
+        <v>-176500</v>
       </c>
       <c r="I72" s="3">
-        <v>-171300</v>
+        <v>-174500</v>
       </c>
       <c r="J72" s="3">
-        <v>-168300</v>
+        <v>-171400</v>
       </c>
       <c r="K72" s="3">
         <v>-165400</v>
@@ -2506,25 +2506,25 @@
         <v>67</v>
       </c>
       <c r="D76" s="3">
-        <v>8100</v>
+        <v>8200</v>
       </c>
       <c r="E76" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F76" s="3">
-        <v>4100</v>
+        <v>4200</v>
       </c>
       <c r="G76" s="3">
-        <v>-8000</v>
+        <v>-8100</v>
       </c>
       <c r="H76" s="3">
-        <v>-8200</v>
+        <v>-8400</v>
       </c>
       <c r="I76" s="3">
-        <v>-7000</v>
+        <v>-7100</v>
       </c>
       <c r="J76" s="3">
-        <v>-4600</v>
+        <v>-4700</v>
       </c>
       <c r="K76" s="3">
         <v>-2300</v>
@@ -2604,7 +2604,7 @@
         <v>200</v>
       </c>
       <c r="F81" s="3">
-        <v>-2100</v>
+        <v>-2200</v>
       </c>
       <c r="G81" s="3">
         <v>-900</v>
@@ -2613,10 +2613,10 @@
         <v>-2000</v>
       </c>
       <c r="I81" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-2900</v>
       </c>
       <c r="K81" s="3">
         <v>-2700</v>
@@ -2820,7 +2820,7 @@
         <v>-1400</v>
       </c>
       <c r="F89" s="3">
-        <v>-4800</v>
+        <v>-4900</v>
       </c>
       <c r="G89" s="3">
         <v>-600</v>
@@ -2829,10 +2829,10 @@
         <v>-4100</v>
       </c>
       <c r="I89" s="3">
-        <v>-6300</v>
+        <v>-6400</v>
       </c>
       <c r="J89" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="K89" s="3">
         <v>500</v>
@@ -3101,13 +3101,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>8400</v>
+        <v>8500</v>
       </c>
       <c r="E100" s="3">
         <v>1800</v>
       </c>
       <c r="F100" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="G100" s="3">
         <v>2300</v>
@@ -3116,7 +3116,7 @@
         <v>4500</v>
       </c>
       <c r="I100" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -3130,7 +3130,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
         <v>700</v>
@@ -3168,7 +3168,7 @@
         <v>-700</v>
       </c>
       <c r="G102" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H102" s="3">
         <v>300</v>
@@ -3177,7 +3177,7 @@
         <v>400</v>
       </c>
       <c r="J102" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="K102" s="3">
         <v>4500</v>
